--- a/soc110_fall_2019/section_gradebook.xlsx
+++ b/soc110_fall_2019/section_gradebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomwolff/Desktop/Git Holder/teaching-materials/soc110_fall_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5218E3-43A8-7F46-BEBA-C5F28A994327}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC72AC-19B4-B940-9A28-CBF3BBBA2508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{0C772843-7444-604F-AD92-601B101983CA}"/>
+    <workbookView xWindow="-45480" yWindow="2860" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{0C772843-7444-604F-AD92-601B101983CA}"/>
   </bookViews>
   <sheets>
     <sheet name="section1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Bennett, Mike</t>
   </si>
@@ -140,13 +140,31 @@
   </si>
   <si>
     <t>sexual assault; cancer</t>
+  </si>
+  <si>
+    <t>attendance2</t>
+  </si>
+  <si>
+    <t>participation2</t>
+  </si>
+  <si>
+    <t>writing2</t>
+  </si>
+  <si>
+    <t>attendance3</t>
+  </si>
+  <si>
+    <t>writing3</t>
+  </si>
+  <si>
+    <t>participation3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +175,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,18 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3661D810-0ED7-5F46-B652-09D26469CDC8}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -523,8 +552,26 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -534,8 +581,26 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,8 +610,26 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -556,8 +639,26 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -567,8 +668,26 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -578,8 +697,26 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -589,8 +726,26 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -600,8 +755,26 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -611,8 +784,26 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -622,8 +813,26 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -633,8 +842,26 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -644,8 +871,26 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -655,8 +900,26 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -666,8 +929,26 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -677,8 +958,26 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -687,6 +986,24 @@
       </c>
       <c r="D16">
         <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -696,18 +1013,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FAC96E-FC47-4C47-8B57-303C9EC86FE1}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -723,8 +1043,26 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -734,8 +1072,26 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -745,8 +1101,26 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -756,8 +1130,26 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -767,8 +1159,26 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -781,8 +1191,26 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -792,8 +1220,26 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -803,8 +1249,26 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -814,8 +1278,26 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -825,8 +1307,26 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -836,8 +1336,26 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -847,8 +1365,26 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -858,8 +1394,26 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -869,8 +1423,26 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -880,8 +1452,26 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -890,6 +1480,24 @@
       </c>
       <c r="E16">
         <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
